--- a/biology/Histoire de la zoologie et de la botanique/Jean-Joseph_Lannes/Jean-Joseph_Lannes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Joseph_Lannes/Jean-Joseph_Lannes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Joseph Lannes, né le 3 septembre 1825 à Aiguilles[1], et mort le 15 mai 1895 (à 69 ans) à Briançon[2] est un botaniste français du XIXe siècle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Joseph Lannes, né le 3 septembre 1825 à Aiguilles, et mort le 15 mai 1895 (à 69 ans) à Briançon est un botaniste français du XIXe siècle.
 </t>
         </is>
       </c>
@@ -513,13 +525,91 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Jean-Joseph Lannes est le fils de Jean Lannes, originaire de la Haute-Garonne[1],[note 1] et de Françoise Nouvel. Il épouse Marie Joséphine Roux dont il a au moins deux filles dont l'une épouse Auguste Roman, menuisier à Villar-Saint-Pancrace, et l'autre Gérard Pierre Adrien, instituteur au Monêtier-les-Bains[2].
-Carrière professionnelle
-Jean-Joseph Lannes fait, comme son père, carrière dans les douanes[3].
-Œuvre scientifique
-Collections
-La Bibliothèque Municipale de Briançon conserve l'herbier collecté par Jean-Joseph Lannes entre 1859 et 1893. Celui-ci occupe onze grosses caisses en bois dont chacune contient, en moyenne, trois piles de six liasses. L'ensemble, que l'on considère en très mauvais état, comprend environ 16 000 planches[4].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Joseph Lannes est le fils de Jean Lannes, originaire de la Haute-Garonne,[note 1] et de Françoise Nouvel. Il épouse Marie Joséphine Roux dont il a au moins deux filles dont l'une épouse Auguste Roman, menuisier à Villar-Saint-Pancrace, et l'autre Gérard Pierre Adrien, instituteur au Monêtier-les-Bains.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jean-Joseph_Lannes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Joseph_Lannes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Joseph Lannes fait, comme son père, carrière dans les douanes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Joseph_Lannes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Joseph_Lannes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Œuvre scientifique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Bibliothèque Municipale de Briançon conserve l'herbier collecté par Jean-Joseph Lannes entre 1859 et 1893. Celui-ci occupe onze grosses caisses en bois dont chacune contient, en moyenne, trois piles de six liasses. L'ensemble, que l'on considère en très mauvais état, comprend environ 16 000 planches.
 </t>
         </is>
       </c>
